--- a/Assets/Resources/Configs/Cards.xlsx
+++ b/Assets/Resources/Configs/Cards.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GAMES\Codes\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProgram\SlayTheSpireM\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB3354C-8AEA-4972-B6FC-6D8936084BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EFA548-CC8E-4739-A1F5-74261D1F126B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3705" yWindow="1785" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ActionIds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Values</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,14 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>defense</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,6 +108,34 @@
   </si>
   <si>
     <t>Silent</t>
+  </si>
+  <si>
+    <t>EffectIds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deal 6 damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gain 5 block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deal 8 damage.Apply 2 vulnerable.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -450,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -463,11 +479,12 @@
     <col min="7" max="7" width="14.125" style="2" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
     <col min="9" max="9" width="12.125" style="2" customWidth="1"/>
-    <col min="10" max="16" width="9" style="2"/>
+    <col min="10" max="10" width="32.25" style="2" customWidth="1"/>
+    <col min="11" max="16" width="9" style="2"/>
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -487,16 +504,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>12</v>
+      <c r="J1" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -516,74 +536,83 @@
         <v>8</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
         <v>6</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
         <v>5</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>23</v>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -600,16 +629,51 @@
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
         <v>6</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/Cards.xlsx
+++ b/Assets/Resources/Configs/Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProgram\SlayTheSpireM\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EFA548-CC8E-4739-A1F5-74261D1F126B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFCB920-A56A-455F-922F-7A01877C02FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="1785" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3705" yWindow="1920" windowWidth="21600" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,15 +126,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Deal 8 damage.Apply 2 vulnerable.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,7 +469,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -536,7 +536,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="2">
         <v>6</v>
@@ -568,7 +568,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="2">
         <v>5</v>
@@ -600,16 +600,16 @@
         <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -632,7 +632,7 @@
         <v>21</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2">
         <v>6</v>
@@ -664,7 +664,7 @@
         <v>21</v>
       </c>
       <c r="G8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="2">
         <v>5</v>
